--- a/data-estimat.xlsx
+++ b/data-estimat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Desktop/Forsgrens-map/SOK-1016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5620CB2-E7BD-A045-B372-8050087520F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03F0AA7-64BF-9040-A7BB-E08BA3BC4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{909DD89B-96A3-834B-9D6F-62E8468EF92D}"/>
+    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{53675746-A018-754F-BC76-266F1833337C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Styringsrente PPR 1/23</t>
-  </si>
-  <si>
-    <t>Policy rate MPR 1/23</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -97,27 +86,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -434,284 +408,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AC3BF4-14B3-1248-B577-94C7C7A66D91}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5654C898-E6BB-8347-9228-7BBB2FC36BA5}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>42825</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>42916</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.5</v>
+      <c r="A4" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43008</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.5</v>
+      <c r="A5" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43100</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.5</v>
+      <c r="A6" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43190</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.5</v>
+      <c r="A7" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>43281</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.5</v>
+      <c r="A8" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>43373</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.53</v>
+      <c r="A9" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>43465</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.75</v>
+      <c r="A10" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>43555</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.78</v>
+      <c r="A11" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>43646</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1.02</v>
+      <c r="A12" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>43738</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1.28</v>
+      <c r="A13" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2.78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>43830</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1.5</v>
+      <c r="A14" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3.18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>43921</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1.32</v>
+      <c r="A15" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>44012</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.1</v>
+      <c r="A16" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>44104</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
+      <c r="A17" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>44196</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
+      <c r="A18" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>44286</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
+      <c r="A19" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3.51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>44377</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>44469</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>44561</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>44651</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>44742</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>44834</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>44926</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>45016</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>45107</v>
-      </c>
-      <c r="B28" s="5">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>45199</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>45291</v>
-      </c>
-      <c r="B30" s="5">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>45382</v>
-      </c>
-      <c r="B31" s="5">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>45473</v>
-      </c>
-      <c r="B32" s="5">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>45565</v>
-      </c>
-      <c r="B33" s="5">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A20" s="1">
         <v>45657</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B20" s="3">
         <v>3.45</v>
       </c>
     </row>

--- a/data-estimat.xlsx
+++ b/data-estimat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Desktop/Forsgrens-map/SOK-1016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03F0AA7-64BF-9040-A7BB-E08BA3BC4EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{617166DF-3821-3B4A-980D-FC8EC36AF0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{53675746-A018-754F-BC76-266F1833337C}"/>
+    <workbookView xWindow="4620" yWindow="1840" windowWidth="27640" windowHeight="16940" xr2:uid="{2A4F9C36-6B71-DB48-9467-99E1C20240B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>dato</t>
+  </si>
+  <si>
+    <t>styringsrent PPR 1/23</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,42 +419,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5654C898-E6BB-8347-9228-7BBB2FC36BA5}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8642B9-FEBB-874A-8277-710D4855E940}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1.32</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44012</v>
+        <v>43921</v>
       </c>
       <c r="B2" s="2">
-        <v>0.1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44104</v>
+        <v>44012</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44196</v>
+        <v>44104</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -451,7 +465,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44286</v>
+        <v>44196</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -459,7 +473,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -467,113 +481,121 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="B7" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="B8" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="B9" s="2">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="B10" s="2">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44834</v>
+        <v>44742</v>
       </c>
       <c r="B11" s="2">
-        <v>1.53</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44926</v>
+        <v>44834</v>
       </c>
       <c r="B12" s="2">
-        <v>2.4500000000000002</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2.78</v>
+        <v>44926</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B14" s="3">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B15" s="3">
-        <v>3.52</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B16" s="3">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B17" s="3">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B18" s="3">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B19" s="3">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>3.45</v>
       </c>
     </row>

--- a/data-estimat.xlsx
+++ b/data-estimat.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakj.forsgren/Desktop/Forsgrens-map/SOK-1016/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{617166DF-3821-3B4A-980D-FC8EC36AF0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7EE05E-FDB2-104F-8D76-3D6200BA757F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1840" windowWidth="27640" windowHeight="16940" xr2:uid="{2A4F9C36-6B71-DB48-9467-99E1C20240B7}"/>
+    <workbookView xWindow="1380" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{2A4F9C36-6B71-DB48-9467-99E1C20240B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>dato</t>
   </si>
   <si>
     <t>styringsrent PPR 1/23</t>
+  </si>
+  <si>
+    <t>kpi PPR 1/3</t>
+  </si>
+  <si>
+    <t>anslag kpi PRR 2/22</t>
+  </si>
+  <si>
+    <t>Inflasjonsmål</t>
   </si>
 </sst>
 </file>
@@ -420,183 +429,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8642B9-FEBB-874A-8277-710D4855E940}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43921</v>
       </c>
       <c r="B2" s="2">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44012</v>
       </c>
       <c r="B3" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44196</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44377</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44469</v>
       </c>
       <c r="B8" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
       <c r="B9" s="2">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44651</v>
       </c>
       <c r="B10" s="2">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44742</v>
       </c>
       <c r="B11" s="2">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>5.82</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
       <c r="B12" s="2">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44926</v>
       </c>
       <c r="B13" s="2">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>6.63</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
       <c r="B14" s="3">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>6.44</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
       <c r="B15" s="3">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <v>5.14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45199</v>
       </c>
       <c r="B16" s="3">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
       <c r="B17" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>3.78</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
       <c r="B18" s="3">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45473</v>
       </c>
       <c r="B19" s="3">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3">
+        <v>3.67</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45565</v>
       </c>
       <c r="B20" s="3">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45657</v>
       </c>
       <c r="B21" s="3">
         <v>3.45</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.63</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
